--- a/binaries/FCfiles/RequestReroute/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/RequestReroute/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="354">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1077,6 +1077,18 @@
   </si>
   <si>
     <t>FCWERN1000465</t>
+  </si>
+  <si>
+    <t>51524746</t>
+  </si>
+  <si>
+    <t>12-21-2021</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394018243</t>
+  </si>
+  <si>
+    <t>FCUPSG1011698</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1124,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="494">
+  <fills count="504">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3579,8 +3591,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="490">
+  <borders count="500">
     <border>
       <left/>
       <right/>
@@ -5851,6 +5913,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5859,7 +5956,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="301">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6155,7 +6252,12 @@
     <xf applyBorder="true" applyFill="true" borderId="483" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="485" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="487" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="493" borderId="489" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="489" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="491" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="493" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="495" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="497" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="503" borderId="499" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -7613,8 +7715,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="287" t="s">
-        <v>338</v>
+      <c r="B11" s="297" t="s">
+        <v>351</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -7665,20 +7767,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="286" t="s">
-        <v>343</v>
+      <c r="V11" s="296" t="s">
+        <v>350</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="X11" s="288" t="s">
+      <c r="X11" s="298" t="s">
         <v>269</v>
       </c>
-      <c r="Y11" s="289" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z11" s="290" t="s">
-        <v>345</v>
+      <c r="Y11" s="299" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z11" s="300" t="s">
+        <v>353</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>146</v>

--- a/binaries/FCfiles/RequestReroute/QuickQuoteTestData.xlsx
+++ b/binaries/FCfiles/RequestReroute/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="365">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1089,6 +1089,39 @@
   </si>
   <si>
     <t>FCUPSG1011698</t>
+  </si>
+  <si>
+    <t>51525379</t>
+  </si>
+  <si>
+    <t>12-27-2021</t>
+  </si>
+  <si>
+    <t>FCBTXA1000392</t>
+  </si>
+  <si>
+    <t>51525380</t>
+  </si>
+  <si>
+    <t>$66.05</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392001648</t>
+  </si>
+  <si>
+    <t>FCUPSG1011750</t>
+  </si>
+  <si>
+    <t>51525381</t>
+  </si>
+  <si>
+    <t>$180.13</t>
+  </si>
+  <si>
+    <t>1Z44R7R60398241299</t>
+  </si>
+  <si>
+    <t>FCUPSG1011751</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1157,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="504">
+  <fills count="534">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3641,8 +3674,158 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="500">
+  <borders count="530">
     <border>
       <left/>
       <right/>
@@ -5948,6 +6131,111 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5956,7 +6244,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="316">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6257,7 +6545,22 @@
     <xf applyBorder="true" applyFill="true" borderId="493" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="495" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="497" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="503" borderId="499" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="499" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="501" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="503" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="505" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="507" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="509" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="511" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="513" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="515" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="517" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="519" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="521" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="523" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="525" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="527" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="533" borderId="529" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -6905,8 +7208,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="292" t="s">
-        <v>338</v>
+      <c r="B2" s="302" t="s">
+        <v>355</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -6957,20 +7260,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="291" t="s">
-        <v>346</v>
+      <c r="V2" s="301" t="s">
+        <v>354</v>
       </c>
       <c r="W2" s="235" t="s">
         <v>309</v>
       </c>
-      <c r="X2" s="293" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y2" s="294" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z2" s="295" t="s">
-        <v>349</v>
+      <c r="X2" s="303" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="304" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z2" s="305" t="s">
+        <v>356</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>147</v>
@@ -7547,8 +7850,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="282" t="s">
-        <v>338</v>
+      <c r="B9" s="307" t="s">
+        <v>355</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -7599,20 +7902,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="281" t="s">
-        <v>340</v>
+      <c r="V9" s="306" t="s">
+        <v>357</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="X9" s="283" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y9" s="284" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z9" s="285" t="s">
-        <v>342</v>
+      <c r="X9" s="308" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y9" s="309" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z9" s="310" t="s">
+        <v>360</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>146</v>
@@ -7715,8 +8018,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="297" t="s">
-        <v>351</v>
+      <c r="B11" s="312" t="s">
+        <v>355</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -7767,20 +8070,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="296" t="s">
-        <v>350</v>
+      <c r="V11" s="311" t="s">
+        <v>361</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="X11" s="298" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y11" s="299" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z11" s="300" t="s">
-        <v>353</v>
+      <c r="X11" s="313" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y11" s="314" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z11" s="315" t="s">
+        <v>364</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>146</v>
